--- a/be-careteam.xlsx
+++ b/be-careteam.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="219">
   <si>
     <t>Path</t>
   </si>
@@ -150,7 +150,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.div.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Entity. Role, or Act</t>
@@ -165,7 +165,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -197,6 +197,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
     <t>CareTeam.implicitRules</t>
   </si>
   <si>
@@ -319,6 +323,10 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>CareTeam.modifierExtension</t>
   </si>
   <si>
@@ -375,7 +383,7 @@
     <t>Indicates the status of the care team.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/care-team-status|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/care-team-status|4.0.1</t>
   </si>
   <si>
     <t>FiveWs.status</t>
@@ -415,10 +423,6 @@
     <t>CareTeam.name</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
     <t>Name of the team, such as crisis assessment team</t>
   </si>
   <si>
@@ -507,8 +511,8 @@
 </t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ctm-1:CareTeam.participant.onBehalfOf can only be populated when CareTeam.participant.member is a Practitioner {onBehalfOf.exists() implies (member.resolve() is Practitioner)}</t>
+    <t>ctm-1:CareTeam.participant.onBehalfOf can only be populated when CareTeam.participant.member is a Practitioner {onBehalfOf.exists() implies (member.resolve().iif(empty(), true, ofType(Practitioner).exists()))}
+ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
   </si>
   <si>
     <t>REL (REL.4 is always the Patient) ( or PRT?)</t>
@@ -1321,7 +1325,7 @@
         <v>39</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>39</v>
@@ -1335,7 +1339,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1358,16 +1362,16 @@
         <v>48</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1417,7 +1421,7 @@
         <v>39</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>40</v>
@@ -1429,7 +1433,7 @@
         <v>39</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>39</v>
@@ -1443,7 +1447,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1466,16 +1470,16 @@
         <v>39</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1501,13 +1505,13 @@
         <v>39</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>39</v>
@@ -1525,7 +1529,7 @@
         <v>39</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>40</v>
@@ -1537,7 +1541,7 @@
         <v>39</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>39</v>
@@ -1551,11 +1555,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -1574,16 +1578,16 @@
         <v>39</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -1633,7 +1637,7 @@
         <v>39</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>40</v>
@@ -1645,7 +1649,7 @@
         <v>39</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>39</v>
@@ -1654,16 +1658,16 @@
         <v>39</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -1682,16 +1686,16 @@
         <v>39</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -1741,7 +1745,7 @@
         <v>39</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>40</v>
@@ -1762,16 +1766,16 @@
         <v>39</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -1790,16 +1794,16 @@
         <v>39</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -1849,7 +1853,7 @@
         <v>39</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>40</v>
@@ -1861,7 +1865,7 @@
         <v>39</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>39</v>
@@ -1870,16 +1874,16 @@
         <v>39</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -1898,19 +1902,19 @@
         <v>39</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>39</v>
@@ -1959,7 +1963,7 @@
         <v>39</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>40</v>
@@ -1971,7 +1975,7 @@
         <v>39</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>39</v>
@@ -1980,12 +1984,12 @@
         <v>39</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2008,19 +2012,19 @@
         <v>48</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>39</v>
@@ -2069,7 +2073,7 @@
         <v>39</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>40</v>
@@ -2081,10 +2085,10 @@
         <v>39</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>39</v>
@@ -2095,7 +2099,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2118,16 +2122,16 @@
         <v>48</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2153,13 +2157,13 @@
         <v>39</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>39</v>
@@ -2177,7 +2181,7 @@
         <v>39</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>40</v>
@@ -2189,10 +2193,10 @@
         <v>39</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>39</v>
@@ -2203,7 +2207,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2226,19 +2230,19 @@
         <v>48</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>39</v>
@@ -2263,13 +2267,13 @@
         <v>39</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>39</v>
@@ -2287,7 +2291,7 @@
         <v>39</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>40</v>
@@ -2299,10 +2303,10 @@
         <v>39</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>39</v>
@@ -2313,7 +2317,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2336,16 +2340,16 @@
         <v>48</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>128</v>
+        <v>49</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2395,7 +2399,7 @@
         <v>39</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>40</v>
@@ -2407,7 +2411,7 @@
         <v>39</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>39</v>
@@ -2421,11 +2425,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -2444,17 +2448,17 @@
         <v>48</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>39</v>
@@ -2503,7 +2507,7 @@
         <v>39</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>40</v>
@@ -2515,10 +2519,10 @@
         <v>39</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>39</v>
@@ -2529,7 +2533,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2552,16 +2556,16 @@
         <v>48</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -2611,7 +2615,7 @@
         <v>39</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>40</v>
@@ -2623,10 +2627,10 @@
         <v>39</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>39</v>
@@ -2637,7 +2641,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2660,17 +2664,17 @@
         <v>48</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>39</v>
@@ -2719,7 +2723,7 @@
         <v>39</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>40</v>
@@ -2731,10 +2735,10 @@
         <v>39</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>39</v>
@@ -2745,7 +2749,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2768,13 +2772,13 @@
         <v>39</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2825,7 +2829,7 @@
         <v>39</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>40</v>
@@ -2834,24 +2838,24 @@
         <v>41</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2874,13 +2878,13 @@
         <v>39</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>128</v>
+        <v>49</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2931,7 +2935,7 @@
         <v>39</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>40</v>
@@ -2952,16 +2956,16 @@
         <v>39</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -2980,16 +2984,16 @@
         <v>39</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3039,7 +3043,7 @@
         <v>39</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>40</v>
@@ -3051,7 +3055,7 @@
         <v>39</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>39</v>
@@ -3060,16 +3064,16 @@
         <v>39</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3088,19 +3092,19 @@
         <v>48</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>39</v>
@@ -3149,7 +3153,7 @@
         <v>39</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>40</v>
@@ -3161,7 +3165,7 @@
         <v>39</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>39</v>
@@ -3170,12 +3174,12 @@
         <v>39</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3198,16 +3202,16 @@
         <v>48</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3233,13 +3237,13 @@
         <v>39</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>39</v>
@@ -3257,7 +3261,7 @@
         <v>39</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>40</v>
@@ -3269,21 +3273,21 @@
         <v>39</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3306,16 +3310,16 @@
         <v>48</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3365,7 +3369,7 @@
         <v>39</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>40</v>
@@ -3377,21 +3381,21 @@
         <v>39</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3414,17 +3418,17 @@
         <v>48</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>39</v>
@@ -3473,7 +3477,7 @@
         <v>39</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>40</v>
@@ -3485,7 +3489,7 @@
         <v>39</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>39</v>
@@ -3499,7 +3503,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3522,13 +3526,13 @@
         <v>39</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3579,7 +3583,7 @@
         <v>39</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>40</v>
@@ -3591,7 +3595,7 @@
         <v>39</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>39</v>
@@ -3605,7 +3609,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3628,13 +3632,13 @@
         <v>39</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3661,13 +3665,13 @@
         <v>39</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>39</v>
@@ -3685,7 +3689,7 @@
         <v>39</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>40</v>
@@ -3697,10 +3701,10 @@
         <v>39</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>39</v>
@@ -3711,7 +3715,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3734,13 +3738,13 @@
         <v>39</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3791,7 +3795,7 @@
         <v>39</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>40</v>
@@ -3803,10 +3807,10 @@
         <v>39</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>39</v>
@@ -3817,7 +3821,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3840,17 +3844,17 @@
         <v>48</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>39</v>
@@ -3899,7 +3903,7 @@
         <v>39</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>40</v>
@@ -3911,7 +3915,7 @@
         <v>39</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>39</v>
@@ -3925,7 +3929,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3948,16 +3952,16 @@
         <v>39</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4007,7 +4011,7 @@
         <v>39</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
@@ -4019,7 +4023,7 @@
         <v>39</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>39</v>
@@ -4033,7 +4037,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4056,13 +4060,13 @@
         <v>39</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4113,7 +4117,7 @@
         <v>39</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>40</v>
@@ -4125,7 +4129,7 @@
         <v>39</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>39</v>
